--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34520.42011933336</v>
+        <v>-37417.8483769708</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.88719820851068</v>
+        <v>13.8871982085107</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.78545761117557</v>
+        <v>10.78545761116732</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986247</v>
+        <v>12.3836958398644</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="J3" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924257</v>
+        <v>15.54112977924363</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.2100830470331</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4983113685841894</v>
+        <v>0.4983113685811927</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.2100830470331</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>31.77848751504765</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>16.2611094610167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,11 +978,11 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
-        <v>16.44799022605971</v>
+        <v>12.84193026251984</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>64.54245901085129</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>81.30196747731283</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>89.49227226221132</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>89.42651845964519</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>208.5804814250771</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>253.4258437163052</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.1634067967806</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>205.3750148428933</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.3108228542367</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>215.5468125969307</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389959</v>
+        <v>28.90056660389953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512083</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853827</v>
+        <v>12.76005920853824</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9628749686877</v>
+        <v>43.77219058293278</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396103</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221583</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2242,19 +2242,19 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707164</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
         <v>54.52629139453015</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2539,7 +2539,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998809</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295159</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453455</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.0474723022156</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545723</v>
@@ -2953,7 +2953,7 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E31" t="n">
         <v>114.8237602943552</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221749</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,7 +3241,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3433,7 +3433,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707177</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453014</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="C2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="D2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="E2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="F2" t="n">
-        <v>65.89483143892893</v>
+        <v>38.88746488572451</v>
       </c>
       <c r="G2" t="n">
-        <v>51.86735850103935</v>
+        <v>24.85999194783492</v>
       </c>
       <c r="H2" t="n">
-        <v>51.86735850103935</v>
+        <v>24.85999194783492</v>
       </c>
       <c r="I2" t="n">
-        <v>51.86735850103935</v>
+        <v>24.85999194783492</v>
       </c>
       <c r="J2" t="n">
-        <v>51.86735850103935</v>
+        <v>24.85999194783492</v>
       </c>
       <c r="K2" t="n">
-        <v>40.97295687358928</v>
+        <v>13.96559032039318</v>
       </c>
       <c r="L2" t="n">
-        <v>28.46417319696052</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="M2" t="n">
-        <v>46.49215541352329</v>
+        <v>19.48478886032308</v>
       </c>
       <c r="N2" t="n">
-        <v>64.52013763008605</v>
+        <v>37.51277107688369</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="W2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="X2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.84033218813241</v>
+        <v>45.83296563492799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="C3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="D3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="E3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="F3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="G3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="H3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="I3" t="n">
-        <v>35.54894081171787</v>
+        <v>35.54894081171656</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188645</v>
+        <v>17.15491753188736</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="L3" t="n">
-        <v>18.7563855384441</v>
+        <v>18.75638553844184</v>
       </c>
       <c r="M3" t="n">
-        <v>36.78436775500687</v>
+        <v>36.78436775500245</v>
       </c>
       <c r="N3" t="n">
-        <v>54.81234997156964</v>
+        <v>54.81234997156306</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218813241</v>
+        <v>72.84033218812367</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218813241</v>
+        <v>72.84033218812367</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.44630890830099</v>
+        <v>72.84033218812367</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890830099</v>
+        <v>54.44630890829445</v>
       </c>
       <c r="S3" t="n">
-        <v>53.94296409154929</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="T3" t="n">
-        <v>53.94296409154929</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="U3" t="n">
-        <v>53.94296409154929</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="V3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="W3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="X3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.54894081171787</v>
+        <v>53.94296409154578</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762648</v>
+        <v>1.456806643762473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="C5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="D5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="E5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="F5" t="n">
-        <v>81.2472951715674</v>
+        <v>99.50099906779938</v>
       </c>
       <c r="G5" t="n">
         <v>67.40151672936742</v>
@@ -4583,34 +4583,34 @@
         <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>154.9161459087924</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="R5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="S5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="T5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="U5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.19279592077088</v>
+        <v>106.4464998170029</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D6" t="n">
-        <v>50.63910264659903</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4656,7 +4656,7 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4671,25 +4671,25 @@
         <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="T6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="U6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="V6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="X6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.9370895426845</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="C8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="D8" t="n">
-        <v>206.191084370842</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="E8" t="n">
-        <v>206.191084370842</v>
+        <v>223.1198808016112</v>
       </c>
       <c r="F8" t="n">
-        <v>140.996681329578</v>
+        <v>109.8747695643146</v>
       </c>
       <c r="G8" t="n">
         <v>27.75157009228141</v>
@@ -4808,7 +4808,7 @@
         <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4826,28 +4826,28 @@
         <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="W8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.35570072784915</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="C9" t="n">
-        <v>39.35570072784915</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D9" t="n">
-        <v>39.35570072784915</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E9" t="n">
-        <v>39.35570072784915</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993892</v>
@@ -4905,28 +4905,28 @@
         <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130178</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130178</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1757398283467</v>
+        <v>439.100581130178</v>
       </c>
       <c r="U9" t="n">
-        <v>265.8459232024424</v>
+        <v>439.100581130178</v>
       </c>
       <c r="V9" t="n">
-        <v>152.6008119651458</v>
+        <v>439.100581130178</v>
       </c>
       <c r="W9" t="n">
-        <v>152.6008119651458</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="X9" t="n">
-        <v>39.35570072784915</v>
+        <v>325.8554698928814</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.35570072784915</v>
+        <v>325.8554698928814</v>
       </c>
     </row>
     <row r="10">
@@ -4960,10 +4960,10 @@
         <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
         <v>8.969012809993892</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.309837160186</v>
+        <v>2144.895377947847</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.347320219774</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>775.0816216130238</v>
+        <v>1575.942324366271</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784195</v>
       </c>
       <c r="G11" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.03470992366</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X11" t="n">
-        <v>2279.04900920012</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y11" t="n">
-        <v>1888.909677224308</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>521.2725633630544</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C13" t="n">
-        <v>521.2725633630544</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D13" t="n">
-        <v>371.1559239507186</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>223.2428303683254</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>223.2428303683254</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5206,43 +5206,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088496</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846024</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672851</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1438.328696730534</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1149.225829856178</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046016</v>
+        <v>894.5413416502907</v>
       </c>
       <c r="W13" t="n">
-        <v>970.0546934046016</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="X13" t="n">
-        <v>742.0651425065843</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="Y13" t="n">
-        <v>521.2725633630544</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1922.864984796686</v>
+        <v>1434.463568804403</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.864984796686</v>
+        <v>1065.501051863991</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.419709186346</v>
+        <v>707.2353532572405</v>
       </c>
       <c r="E14" t="n">
-        <v>1223.631456588101</v>
+        <v>321.4471006589962</v>
       </c>
       <c r="F14" t="n">
-        <v>812.6455517984939</v>
+        <v>321.4471006589962</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9052307464394</v>
+        <v>321.4471006589962</v>
       </c>
       <c r="H14" t="n">
         <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773516</v>
+        <v>291.0377674773522</v>
       </c>
       <c r="K14" t="n">
-        <v>666.264472005598</v>
+        <v>666.2644720055989</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645698</v>
+        <v>1168.668140645699</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275284</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235389</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163071</v>
+        <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.6239741404</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049509</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584645</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.80552404519</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="T14" t="n">
-        <v>3623.80552404519</v>
+        <v>3522.003948117029</v>
       </c>
       <c r="U14" t="n">
-        <v>3370.301617647262</v>
+        <v>3268.500041719101</v>
       </c>
       <c r="V14" t="n">
-        <v>3039.238730303692</v>
+        <v>2937.437154375531</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.470075033577</v>
+        <v>2584.668499105416</v>
       </c>
       <c r="X14" t="n">
-        <v>2313.004316772498</v>
+        <v>2211.202740844336</v>
       </c>
       <c r="Y14" t="n">
-        <v>1922.864984796686</v>
+        <v>1821.063408868524</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718609</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807614</v>
+        <v>184.6629209807616</v>
       </c>
       <c r="K15" t="n">
-        <v>451.051499062828</v>
+        <v>451.0514990628283</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417079</v>
+        <v>855.5663578417085</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475663</v>
+        <v>1346.972986475664</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259247</v>
+        <v>1865.794331259248</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.19470656048</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
         <v>2381.012571295174</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.8691106435391</v>
+        <v>434.2118384598912</v>
       </c>
       <c r="C16" t="n">
-        <v>356.9329277156324</v>
+        <v>434.2118384598912</v>
       </c>
       <c r="D16" t="n">
-        <v>206.8162883032966</v>
+        <v>434.2118384598912</v>
       </c>
       <c r="E16" t="n">
-        <v>206.8162883032966</v>
+        <v>286.2987448774981</v>
       </c>
       <c r="F16" t="n">
-        <v>74.53055601169289</v>
+        <v>242.0844109553438</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J16" t="n">
-        <v>129.976586552547</v>
+        <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923166</v>
+        <v>350.928283792317</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553097</v>
+        <v>689.19681985531</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
         <v>1739.964067776857</v>
@@ -5458,28 +5458,28 @@
         <v>2080.068878389593</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304784</v>
+        <v>2080.068878389593</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.847639528747</v>
+        <v>1890.979338613557</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.847639528747</v>
+        <v>1669.849281277321</v>
       </c>
       <c r="U16" t="n">
-        <v>1518.752898927934</v>
+        <v>1380.754540676508</v>
       </c>
       <c r="V16" t="n">
-        <v>1264.068410722047</v>
+        <v>1126.070052470621</v>
       </c>
       <c r="W16" t="n">
-        <v>974.6512406850866</v>
+        <v>836.6528824336611</v>
       </c>
       <c r="X16" t="n">
-        <v>746.6616897870692</v>
+        <v>836.6528824336611</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.8691106435391</v>
+        <v>615.860303290131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5513,25 +5513,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5555,10 +5555,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277776</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538067</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N18" t="n">
-        <v>2100.171002464469</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2152.777327818392</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315386</v>
@@ -5674,10 +5674,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5701,16 +5701,16 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073043</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
@@ -5741,7 +5741,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5756,7 +5756,7 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5771,13 +5771,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5786,16 +5786,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5579923844783</v>
+        <v>941.5579923844781</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1049631033513</v>
+        <v>767.1049631033511</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1705534421001</v>
+        <v>618.1705534420998</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9330984366445</v>
+        <v>458.9330984366444</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3985404635295</v>
+        <v>312.3985404635294</v>
       </c>
       <c r="G21" t="n">
-        <v>176.4447347764803</v>
+        <v>176.4447347764802</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177172</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>216.5575109835859</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L21" t="n">
-        <v>670.3561405779133</v>
+        <v>841.8200879193084</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857002</v>
+        <v>1390.738552529598</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2474.998855404251</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5865,7 +5865,7 @@
         <v>2014.774593334977</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.622485103235</v>
+        <v>1779.622485103234</v>
       </c>
       <c r="W21" t="n">
         <v>1525.385128375033</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
@@ -5908,13 +5908,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,10 +5923,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5938,7 +5938,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5975,34 +5975,34 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
@@ -6011,10 +6011,10 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6078,7 +6078,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
         <v>2168.542634771632</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897935</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042799</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443625</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902799</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P25" t="n">
         <v>2392.455631028689</v>
@@ -6169,10 +6169,10 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502126</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477746</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609077</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039836</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315422</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749486</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897975</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6464,7 +6464,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6476,10 +6476,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6494,16 +6494,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6540,22 +6540,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749435</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897924</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042765</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443593</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902769</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357082</v>
@@ -6661,7 +6661,7 @@
         <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.58138725498</v>
@@ -6677,7 +6677,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6780,25 +6780,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -7014,22 +7014,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1968.593900456</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,16 +7114,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
@@ -7157,16 +7157,16 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7214,10 +7214,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,37 +7330,37 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237502</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951463</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7494,16 +7494,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694436</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179733</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042799</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443625</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902799</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352543</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7725,22 +7725,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>33.6362413227248</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272128</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775176</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.6362413227248</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>106.7437663446525</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>156.6924103459304</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>116.3052569621638</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>10.86240146224763</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14.17393443327592</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.37221876644628</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>75.69354878656921</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.45817305424353</v>
+        <v>101.6488574399985</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942143</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434407</v>
+        <v>91.91693778434404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396101</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-4.61142235508305e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.77635683940025e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.511946372076636e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
@@ -26323,7 +26323,7 @@
         <v>289847.5341252827</v>
       </c>
       <c r="F2" t="n">
-        <v>305485.7263189098</v>
+        <v>305485.7263189099</v>
       </c>
       <c r="G2" t="n">
         <v>348942.7521923204</v>
@@ -26332,28 +26332,28 @@
         <v>348942.7521923204</v>
       </c>
       <c r="I2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="J2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="K2" t="n">
+        <v>348942.7521923201</v>
+      </c>
+      <c r="L2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="M2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="N2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="J2" t="n">
-        <v>348942.7521923202</v>
-      </c>
-      <c r="K2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923201</v>
-      </c>
-      <c r="M2" t="n">
-        <v>348942.7521923205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923202</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.75219232</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321846</v>
+        <v>345405.5970321809</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876307</v>
+        <v>50948.63134876657</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
@@ -26375,37 +26375,37 @@
         <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654207</v>
+        <v>93369.88484654264</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975345</v>
+        <v>143964.0818975339</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.223048447078327e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757921</v>
+        <v>4764.55896875746</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908216</v>
+        <v>8128.948714908757</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194614</v>
+        <v>41060.19902194611</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383015</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.1543861315</v>
+        <v>24549.15438613172</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875996</v>
+        <v>31434.59456875981</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.756507117534057e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318197</v>
+        <v>348982.9265318208</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26424,37 +26424,37 @@
         <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
-        <v>15869.84275221455</v>
+        <v>15869.84275221465</v>
       </c>
       <c r="F4" t="n">
         <v>15921.71033071284</v>
       </c>
       <c r="G4" t="n">
-        <v>47059.2027661331</v>
+        <v>47059.20276613306</v>
       </c>
       <c r="H4" t="n">
+        <v>47059.20276613306</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47059.20276613308</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47059.20276613312</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47059.20276613315</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47059.20276613312</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47059.20276613322</v>
+      </c>
+      <c r="N4" t="n">
         <v>47059.20276613309</v>
       </c>
-      <c r="I4" t="n">
-        <v>47059.20276613309</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47059.2027661333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47059.20276613317</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47059.20276613311</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47059.20276613321</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47059.20276613312</v>
-      </c>
       <c r="O4" t="n">
-        <v>47059.20276613308</v>
+        <v>47059.20276613314</v>
       </c>
       <c r="P4" t="n">
         <v>47059.20276613321</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425689</v>
+        <v>42410.8888242567</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,37 +26476,37 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390695</v>
+        <v>82183.39720390699</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="I5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387856.6601959409</v>
+        <v>-387856.660195938</v>
       </c>
       <c r="C6" t="n">
-        <v>-80569.10459435535</v>
+        <v>-80569.10459435896</v>
       </c>
       <c r="D6" t="n">
-        <v>-94393.62762487435</v>
+        <v>-94393.62762487441</v>
       </c>
       <c r="E6" t="n">
-        <v>-508109.506831279</v>
+        <v>-508457.1257610851</v>
       </c>
       <c r="F6" t="n">
-        <v>114010.7339377479</v>
+        <v>113755.1043737862</v>
       </c>
       <c r="G6" t="n">
-        <v>62813.03342649757</v>
+        <v>62813.03342649818</v>
       </c>
       <c r="H6" t="n">
-        <v>206777.115324032</v>
+        <v>206777.1153240315</v>
       </c>
       <c r="I6" t="n">
-        <v>206777.1153240321</v>
+        <v>206777.1153240324</v>
       </c>
       <c r="J6" t="n">
-        <v>202012.5563552738</v>
+        <v>202012.5563552745</v>
       </c>
       <c r="K6" t="n">
-        <v>198648.1666091236</v>
+        <v>198648.166609123</v>
       </c>
       <c r="L6" t="n">
-        <v>165716.9163020856</v>
+        <v>165716.9163020859</v>
       </c>
       <c r="M6" t="n">
-        <v>27527.4703857306</v>
+        <v>27527.4703857307</v>
       </c>
       <c r="N6" t="n">
-        <v>182227.9609379004</v>
+        <v>182227.9609379005</v>
       </c>
       <c r="O6" t="n">
-        <v>175342.520755272</v>
+        <v>175342.5207552724</v>
       </c>
       <c r="P6" t="n">
-        <v>206777.1153240316</v>
+        <v>206777.1153240317</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221402</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221392</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221392</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221413</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221401</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221413</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228112</v>
+        <v>352.1154025228082</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461612</v>
+        <v>931.6319501461619</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26811,7 +26811,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>1.28263114415209e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.527666881884215e-13</v>
+        <v>1.744483922396155e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>1.56319401867222e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228112</v>
+        <v>352.1154025228082</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475682</v>
+        <v>44.74454074475989</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,13 +26969,13 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.7909432149745</v>
+        <v>81.79094321497496</v>
       </c>
       <c r="G3" t="n">
-        <v>106.59222681185</v>
+        <v>106.5922268118495</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009152</v>
+        <v>31.58492398009371</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773692</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.230494743869</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703242</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009198</v>
+        <v>31.58492398009371</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>1.28263114415209e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009152</v>
+        <v>31.58492398009371</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.230494743869</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,16 +27394,16 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918003</v>
+        <v>324.9779101918005</v>
       </c>
       <c r="I2" t="n">
-        <v>155.90331045177</v>
+        <v>155.9033104517705</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107642</v>
+        <v>60.90377530107747</v>
       </c>
       <c r="K2" t="n">
-        <v>29.24248535878569</v>
+        <v>29.2424853587955</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855233</v>
+        <v>27.6766740385541</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621741</v>
+        <v>69.44336957621874</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443892</v>
+        <v>126.66666684439</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365426</v>
+        <v>176.7634676365429</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27476,10 +27476,10 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279181</v>
+        <v>55.23582610576112</v>
       </c>
       <c r="J3" t="n">
-        <v>37.07171450884228</v>
+        <v>37.07171450884509</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,22 +27500,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.09276014253654</v>
+        <v>43.30284318957048</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006849</v>
+        <v>80.445405463038</v>
       </c>
       <c r="S3" t="n">
-        <v>157.1168528514413</v>
+        <v>157.1168528514444</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918172</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>214.5905041023922</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,37 +27555,37 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956164</v>
+        <v>82.10359380956203</v>
       </c>
       <c r="K4" t="n">
-        <v>55.2421951501825</v>
+        <v>55.24219515018314</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323738</v>
+        <v>40.48311410323821</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660779</v>
+        <v>39.39257270660868</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988098</v>
+        <v>30.51901051988183</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406131</v>
+        <v>48.70751749406209</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728731</v>
+        <v>60.93221199728799</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850135</v>
+        <v>98.3355758485018</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545822</v>
+        <v>148.7431818545825</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839193</v>
+        <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.9288331427304</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27655,13 +27655,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
         <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>99.10632418716015</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>97.65005853751413</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,13 +27710,13 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>54.19623348224745</v>
       </c>
       <c r="I6" t="n">
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
-        <v>139.3795029557201</v>
+        <v>142.98556291926</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>342.3335867308601</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>332.086736867175</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>165.4040387101212</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>83.21622672610442</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27953,7 +27953,7 @@
         <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,16 +27986,16 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>136.447488750877</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855383</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,13 +28032,13 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>62.66918826090808</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M10" t="n">
         <v>4.341129883412066</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.904396447004995e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I35" t="n">
-        <v>12.3803783660569</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624366</v>
+        <v>1.415539306624353</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396679</v>
+        <v>14.49689192396666</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863591</v>
+        <v>54.57257911863543</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256099</v>
+        <v>120.1421292256088</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750193</v>
+        <v>180.0619080750177</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301248</v>
+        <v>223.3827191301228</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743058</v>
+        <v>248.5563162743037</v>
       </c>
       <c r="N2" t="n">
-        <v>247.623146643624</v>
+        <v>247.6231466436218</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490063</v>
+        <v>238.5024483490042</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167172</v>
+        <v>203.5563217167154</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982321</v>
+        <v>152.8623202982307</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974288</v>
+        <v>88.91887096974212</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970276</v>
+        <v>32.25660194970249</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748164</v>
+        <v>6.196523314748109</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299492</v>
+        <v>0.1132431445299482</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660468</v>
+        <v>0.7573802997660402</v>
       </c>
       <c r="H3" t="n">
-        <v>7.3146992108984</v>
+        <v>7.314699210898337</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720819</v>
+        <v>26.07647084720796</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079131</v>
+        <v>71.55582911079068</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951164</v>
+        <v>122.3003091951154</v>
       </c>
       <c r="L3" t="n">
-        <v>156.028701895714</v>
+        <v>156.0287018957119</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690514</v>
+        <v>160.3441169690492</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303664</v>
+        <v>149.5517951303642</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914775</v>
+        <v>160.8063274914753</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645187</v>
+        <v>96.67893089645104</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389545</v>
+        <v>47.02401545389504</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381231</v>
+        <v>14.06800688381218</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004372</v>
+        <v>3.052774103004345</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039784</v>
+        <v>0.0498276513003974</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706431</v>
+        <v>0.6349622012706376</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660813</v>
+        <v>5.645391207660763</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730262</v>
+        <v>19.09504510730245</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983447</v>
+        <v>44.89182762983408</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035288</v>
+        <v>73.77106302035224</v>
       </c>
       <c r="L4" t="n">
-        <v>94.4015621780009</v>
+        <v>94.40156217800008</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099726</v>
+        <v>99.53321124099638</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535221</v>
+        <v>97.16653394535136</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778148</v>
+        <v>89.7490209577807</v>
       </c>
       <c r="P4" t="n">
-        <v>76.7957920518603</v>
+        <v>76.79579205185962</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094449</v>
+        <v>53.16942578094403</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258727</v>
+        <v>28.55020952258702</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305293</v>
+        <v>11.06565945305283</v>
       </c>
       <c r="T4" t="n">
-        <v>2.71302031452002</v>
+        <v>2.713020314519996</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748966</v>
+        <v>0.03463430188748937</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31376,10 +31376,10 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601094</v>
+        <v>4.709819673601095</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226721</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665063</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223011</v>
+        <v>399.7400575223013</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058355</v>
+        <v>599.1067243058358</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418051</v>
+        <v>743.2448681418055</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622086</v>
+        <v>827.0031237622088</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098277</v>
+        <v>840.3848989098281</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304568</v>
+        <v>793.5516295304571</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384297</v>
+        <v>677.2779563384299</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775904</v>
+        <v>508.6075392775906</v>
       </c>
       <c r="R14" t="n">
-        <v>295.853210071845</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
-        <v>107.325015812185</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
         <v>20.6172356211888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880874</v>
+        <v>0.3767855738880875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681945</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137563</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146173</v>
+        <v>86.76232079146176</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667359</v>
+        <v>238.082439766736</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744263</v>
+        <v>406.9208107744264</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332883</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755086</v>
+        <v>638.5043658755088</v>
       </c>
       <c r="N15" t="n">
-        <v>655.403676511196</v>
+        <v>655.4036765111962</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062959</v>
+        <v>315.788285634692</v>
       </c>
       <c r="P15" t="n">
-        <v>197.4267960352328</v>
+        <v>481.2048309068359</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999621</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762295</v>
+        <v>46.80744312762296</v>
       </c>
       <c r="T15" t="n">
         <v>10.15727042131889</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244426</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482773</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291422</v>
+        <v>63.53353714291424</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720809</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913069</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023032</v>
+        <v>314.0953647023033</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587876</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102405</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824759</v>
+        <v>298.615306982476</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118894</v>
+        <v>255.5169825118895</v>
       </c>
       <c r="Q16" t="n">
         <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320845</v>
+        <v>94.99300928320848</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869603</v>
+        <v>36.81795365869605</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408</v>
+        <v>9.026832665408003</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860597</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879669</v>
@@ -32327,13 +32327,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>211.6584993001651</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>329.953114984145</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M21" t="n">
-        <v>349.2837806975606</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764895</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32798,10 +32798,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
@@ -33026,10 +33026,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33275,10 +33275,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,10 +33500,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,16 +33512,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33746,13 +33746,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33983,16 +33983,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>194.5247275202073</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,7 +34214,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>593.4871659531818</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34226,7 +34226,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>521.5364117268584</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,25 +34445,25 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>693.1474615255904</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="N2" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927319545</v>
+        <v>8.40423692731747</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>17.47432211583985</v>
+        <v>17.47432211583774</v>
       </c>
       <c r="M3" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="N3" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="O3" t="n">
-        <v>18.2100830470331</v>
+        <v>18.21008304703092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306613</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789756</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956148</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.016873260855</v>
+        <v>379.0168732608552</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718179</v>
+        <v>507.4784531718182</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349359</v>
+        <v>596.6568905349361</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132369</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087701</v>
+        <v>563.4534181087704</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831602</v>
+        <v>446.0449605831604</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031409</v>
+        <v>286.3018494031411</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771283</v>
+        <v>80.26767225771295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>111.2448131000693</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000673</v>
+        <v>269.0793718000674</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534141</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534903</v>
+        <v>496.3703319534905</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278627</v>
+        <v>524.0619644278629</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618515</v>
+        <v>173.1920411902476</v>
       </c>
       <c r="P15" t="n">
-        <v>63.45238862090258</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139405</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540815</v>
+        <v>56.00609145540821</v>
       </c>
       <c r="K16" t="n">
         <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626193</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206282</v>
+        <v>370.7533996206283</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894691</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965156</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767829</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335481</v>
+        <v>90.74467096335486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35975,13 +35975,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>69.06225485572071</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>195.9787075698148</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,7 +36057,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M21" t="n">
-        <v>207.1497467755423</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426215921</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36446,10 +36446,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193572</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414977</v>
@@ -36531,7 +36531,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36674,10 +36674,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36923,10 +36923,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193538</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
@@ -37148,10 +37148,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641584</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37394,13 +37394,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37631,16 +37631,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>63.18301543687397</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>454.9327861733077</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,7 +37874,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193572</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -37953,7 +37953,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>551.013427603572</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
